--- a/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-AM-5.1.xlsx
+++ b/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-AM-5.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{16C98FA5-147D-4C86-BC88-4EA2D9BCE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C653F24E-284F-4442-8C47-1C8560533ACE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{16C98FA5-147D-4C86-BC88-4EA2D9BCE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{421964F1-B539-4D3B-8A9D-CE0F4BEA11C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25905" yWindow="-3525" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="532">
   <si>
     <t>OMSCHRIJVING</t>
   </si>
@@ -1599,6 +1599,42 @@
   </si>
   <si>
     <t>*-**-AM-TANGENTPUNT</t>
+  </si>
+  <si>
+    <t>WILDVIADUCT</t>
+  </si>
+  <si>
+    <t>VEETUNNEL</t>
+  </si>
+  <si>
+    <t>WILDTUNNEL</t>
+  </si>
+  <si>
+    <t>0 TOT 5CM</t>
+  </si>
+  <si>
+    <t>5 TOT 10CM</t>
+  </si>
+  <si>
+    <t>ONBEKEND</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_KUNSTWERK_WILDWISSEL_ECODUCT_WILDVIADUCT</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_KUNSTWERK_WILDWISSEL_ECOTUNNEL_VEETUNNEL</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_KUNSTWERK_WILDWISSEL_ECOTUNNEL_WILDTUNNEL</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_SPOOR_TRAM_AFWIJKING_0 TOT 5CM</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_SPOOR_TRAM_AFWIJKING_5 TOT 10CM</t>
+  </si>
+  <si>
+    <t>*-**-AM-AS_SPOOR_TRAM_AFWIJKING_ONBEKEND</t>
   </si>
 </sst>
 </file>
@@ -1925,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,8 +8028,14 @@
       <c r="N44" t="s">
         <v>387</v>
       </c>
+      <c r="O44" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" t="s">
+        <v>520</v>
+      </c>
       <c r="Y44" s="1" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="Z44" t="s">
         <v>56</v>
@@ -8278,8 +8320,14 @@
       <c r="N46" t="s">
         <v>388</v>
       </c>
+      <c r="O46" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" t="s">
+        <v>521</v>
+      </c>
       <c r="Y46" s="1" t="s">
-        <v>440</v>
+        <v>527</v>
       </c>
       <c r="Z46" t="s">
         <v>56</v>
@@ -8421,8 +8469,14 @@
       <c r="N47" t="s">
         <v>388</v>
       </c>
+      <c r="O47" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" t="s">
+        <v>522</v>
+      </c>
       <c r="Y47" s="1" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="Z47" t="s">
         <v>56</v>
@@ -10634,8 +10688,14 @@
       <c r="N63" t="s">
         <v>395</v>
       </c>
+      <c r="O63" t="s">
+        <v>6</v>
+      </c>
+      <c r="P63" t="s">
+        <v>523</v>
+      </c>
       <c r="Y63" s="1" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="Z63" t="s">
         <v>56</v>
@@ -10771,8 +10831,14 @@
       <c r="N64" t="s">
         <v>395</v>
       </c>
+      <c r="O64" t="s">
+        <v>6</v>
+      </c>
+      <c r="P64" t="s">
+        <v>524</v>
+      </c>
       <c r="Y64" s="1" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="Z64" t="s">
         <v>56</v>
@@ -10908,8 +10974,14 @@
       <c r="N65" t="s">
         <v>395</v>
       </c>
+      <c r="O65" t="s">
+        <v>6</v>
+      </c>
+      <c r="P65" t="s">
+        <v>525</v>
+      </c>
       <c r="Y65" s="1" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="Z65" t="s">
         <v>56</v>
@@ -19850,7 +19922,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:CD169" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CD169">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG130">
       <sortCondition ref="A1:A169"/>
     </sortState>
   </autoFilter>
